--- a/cod_cliente.xlsx
+++ b/cod_cliente.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefanie.santos\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bernoulli.sharepoint.com/sites/ReportsControladoria/Documentos Compartilhados/Automatizações/Aplicativo_Conceito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D880C237-0A1C-46FB-AB83-45ADCEB1A955}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{CC41C9FF-66AB-431B-82F2-A2E464077E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C3C58C6-811A-417E-91DF-80850D193041}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-45120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="81">
   <si>
     <t>TITULO</t>
   </si>
@@ -241,13 +241,28 @@
     <t>RECEBER_PAGAR</t>
   </si>
   <si>
-    <t>01.101</t>
-  </si>
-  <si>
     <t>Receber</t>
   </si>
   <si>
     <t>Pagar</t>
+  </si>
+  <si>
+    <t>02.299</t>
+  </si>
+  <si>
+    <t>LOCAL_ESTOQUE</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>101</t>
   </si>
 </sst>
 </file>
@@ -330,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -349,6 +364,13 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,21 +673,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="88" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.90625" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,8 +704,11 @@
       <c r="E1" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -693,13 +719,16 @@
         <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,13 +739,16 @@
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,13 +759,16 @@
         <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -744,13 +779,16 @@
         <v>43</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -761,13 +799,16 @@
         <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -778,13 +819,16 @@
         <v>43</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -795,13 +839,16 @@
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -812,13 +859,16 @@
         <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -829,13 +879,16 @@
         <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -846,13 +899,16 @@
         <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -863,13 +919,16 @@
         <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -880,13 +939,16 @@
         <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,13 +959,16 @@
         <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -914,13 +979,16 @@
         <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -931,13 +999,16 @@
         <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -948,13 +1019,16 @@
         <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -965,13 +1039,16 @@
         <v>46</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
@@ -982,13 +1059,16 @@
         <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -999,13 +1079,16 @@
         <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
@@ -1016,13 +1099,16 @@
         <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1033,13 +1119,16 @@
         <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1050,13 +1139,16 @@
         <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
@@ -1067,13 +1159,16 @@
         <v>51</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>24</v>
       </c>
@@ -1084,13 +1179,16 @@
         <v>52</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1101,13 +1199,16 @@
         <v>53</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>26</v>
       </c>
@@ -1118,13 +1219,16 @@
         <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>27</v>
       </c>
@@ -1135,13 +1239,16 @@
         <v>44</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>28</v>
       </c>
@@ -1152,13 +1259,16 @@
         <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
@@ -1169,13 +1279,16 @@
         <v>47</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
@@ -1186,13 +1299,16 @@
         <v>47</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
@@ -1203,13 +1319,16 @@
         <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
@@ -1220,13 +1339,16 @@
         <v>47</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>34</v>
       </c>
@@ -1237,13 +1359,16 @@
         <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -1254,13 +1379,16 @@
         <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>36</v>
       </c>
@@ -1271,13 +1399,16 @@
         <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1288,13 +1419,16 @@
         <v>43</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
@@ -1305,13 +1439,16 @@
         <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>39</v>
       </c>
@@ -1322,13 +1459,16 @@
         <v>44</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>40</v>
       </c>
@@ -1339,13 +1479,16 @@
         <v>46</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>41</v>
       </c>
@@ -1356,10 +1499,13 @@
         <v>45</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
